--- a/templete/itemFeature_import.xlsx
+++ b/templete/itemFeature_import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Work\SplanFile\Templete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tae_b\OneDrive\เดสก์ท็อป\SPlan\templete\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B86F3-46C7-44EF-B233-9239A1F9555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>item feature</t>
   </si>
@@ -42,17 +43,20 @@
   </si>
   <si>
     <t>default feature</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -83,7 +87,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,28 +364,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -396,6 +400,57 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
